--- a/Data_Extraction and analysis/Analysis Results.xlsx
+++ b/Data_Extraction and analysis/Analysis Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epfedu-my.sharepoint.com/personal/dinura_weerasena_epfedu_fr/Documents/Uni/5eme Année/Project(Σ.humans)/Coding/sum_humans/Data_Extraction and analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{D6A64D84-5951-4C31-8D6B-B5EEF8A53633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2A4BE5-1D6C-47D2-B6A8-64C1F35BEF70}"/>
+  <xr:revisionPtr revIDLastSave="598" documentId="8_{D6A64D84-5951-4C31-8D6B-B5EEF8A53633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6224B06-0FED-4473-A2B2-346500AB79F1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{32BA3933-B651-4177-960D-5591C6D6E359}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="200">
   <si>
     <t>Num_people and co2_value</t>
   </si>
@@ -99,13 +99,650 @@
   </si>
   <si>
     <t>First Results</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 18/11/2024 to 22/22/2024 |Grouping 10 mins</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 18/11/2024 to 22/22/2024 |Grouping 30 mins</t>
+  </si>
+  <si>
+    <t>Final Results Part 1</t>
+  </si>
+  <si>
+    <t>Final Results Part 2</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 25/11/2024 to 29/22/2024 |Grouping 10 mins</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 25/11/2024 to 29/22/2024 |Grouping 30 mins</t>
+  </si>
+  <si>
+    <t>Final Results Part 3</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 18/11/2024 to 29/22/2024 |Grouping 10 mins</t>
+  </si>
+  <si>
+    <t>Analyzing correlations on Ground truth 18/11/2024 to 29/22/2024 |Grouping 30 mins</t>
+  </si>
+  <si>
+    <t>YOLO V3 Results from 18/11/2024 to 29/22/2024 |Grouping 10 mins</t>
+  </si>
+  <si>
+    <t>YOLO V3 Results from 18/11/2024 to 29/22/2024 |Grouping 30 mins</t>
+  </si>
+  <si>
+    <t>CO2 Range</t>
+  </si>
+  <si>
+    <t>Avg Num People</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Avg Sound Value</t>
+  </si>
+  <si>
+    <t>Sound Value Std</t>
+  </si>
+  <si>
+    <t>Min CO2 Value</t>
+  </si>
+  <si>
+    <t>Max CO2 Value</t>
+  </si>
+  <si>
+    <t>322.3</t>
+  </si>
+  <si>
+    <t>549.3</t>
+  </si>
+  <si>
+    <t>550-650</t>
+  </si>
+  <si>
+    <t>2.977273</t>
+  </si>
+  <si>
+    <t>48.598485</t>
+  </si>
+  <si>
+    <t>5.496508</t>
+  </si>
+  <si>
+    <t>553.0</t>
+  </si>
+  <si>
+    <t>649.7</t>
+  </si>
+  <si>
+    <t>650.0</t>
+  </si>
+  <si>
+    <t>849.3</t>
+  </si>
+  <si>
+    <t>850-950</t>
+  </si>
+  <si>
+    <t>5.250000</t>
+  </si>
+  <si>
+    <t>49.575000</t>
+  </si>
+  <si>
+    <t>7.662387</t>
+  </si>
+  <si>
+    <t>851.3</t>
+  </si>
+  <si>
+    <t>949.3</t>
+  </si>
+  <si>
+    <t>950-1050</t>
+  </si>
+  <si>
+    <t>4.047619</t>
+  </si>
+  <si>
+    <t>48.904762</t>
+  </si>
+  <si>
+    <t>5.512756</t>
+  </si>
+  <si>
+    <t>952.0</t>
+  </si>
+  <si>
+    <t>1049.7</t>
+  </si>
+  <si>
+    <t>1050-1150</t>
+  </si>
+  <si>
+    <t>4.800000</t>
+  </si>
+  <si>
+    <t>48.200000</t>
+  </si>
+  <si>
+    <t>9.679876</t>
+  </si>
+  <si>
+    <t>1056.7</t>
+  </si>
+  <si>
+    <t>1097.3</t>
+  </si>
+  <si>
+    <t>&gt;1150</t>
+  </si>
+  <si>
+    <t>6.500000</t>
+  </si>
+  <si>
+    <t>59.750000</t>
+  </si>
+  <si>
+    <t>8.139410</t>
+  </si>
+  <si>
+    <t>1171.3</t>
+  </si>
+  <si>
+    <t>1285.3</t>
+  </si>
+  <si>
+    <t>Sound Range</t>
+  </si>
+  <si>
+    <t>Avg CO2 Value</t>
+  </si>
+  <si>
+    <t>CO2 Std</t>
+  </si>
+  <si>
+    <t>0.450185</t>
+  </si>
+  <si>
+    <t>552.179705</t>
+  </si>
+  <si>
+    <t>150.531303</t>
+  </si>
+  <si>
+    <t>1089.3</t>
+  </si>
+  <si>
+    <t>343.3</t>
+  </si>
+  <si>
+    <t>1231.3</t>
+  </si>
+  <si>
+    <t>394.3</t>
+  </si>
+  <si>
+    <t>&gt;65</t>
+  </si>
+  <si>
+    <t>7.333333</t>
+  </si>
+  <si>
+    <t>1083.300000</t>
+  </si>
+  <si>
+    <t>191.791554</t>
+  </si>
+  <si>
+    <t>863.3</t>
+  </si>
+  <si>
+    <t>1215.3</t>
+  </si>
+  <si>
+    <t>3.891089</t>
+  </si>
+  <si>
+    <t>50.089109</t>
+  </si>
+  <si>
+    <t>5.270861</t>
+  </si>
+  <si>
+    <t>553.3</t>
+  </si>
+  <si>
+    <t>652.3</t>
+  </si>
+  <si>
+    <t>7.500000</t>
+  </si>
+  <si>
+    <t>53.035714</t>
+  </si>
+  <si>
+    <t>6.203238</t>
+  </si>
+  <si>
+    <t>4.473684</t>
+  </si>
+  <si>
+    <t>49.842105</t>
+  </si>
+  <si>
+    <t>4.856418</t>
+  </si>
+  <si>
+    <t>952.7</t>
+  </si>
+  <si>
+    <t>1.544304</t>
+  </si>
+  <si>
+    <t>579.287342</t>
+  </si>
+  <si>
+    <t>172.602113</t>
+  </si>
+  <si>
+    <t>&lt;45</t>
+  </si>
+  <si>
+    <t>45-50</t>
+  </si>
+  <si>
+    <t>2.666667</t>
+  </si>
+  <si>
+    <t>627.507738</t>
+  </si>
+  <si>
+    <t>164.483554</t>
+  </si>
+  <si>
+    <t>50-55</t>
+  </si>
+  <si>
+    <t>5.128788</t>
+  </si>
+  <si>
+    <t>680.653788</t>
+  </si>
+  <si>
+    <t>157.228083</t>
+  </si>
+  <si>
+    <t>388.3</t>
+  </si>
+  <si>
+    <t>1078.3</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>5.967742</t>
+  </si>
+  <si>
+    <t>697.991935</t>
+  </si>
+  <si>
+    <t>163.081690</t>
+  </si>
+  <si>
+    <t>60-65</t>
+  </si>
+  <si>
+    <t>6.333333</t>
+  </si>
+  <si>
+    <t>686.233333</t>
+  </si>
+  <si>
+    <t>167.130157</t>
+  </si>
+  <si>
+    <t>397.3</t>
+  </si>
+  <si>
+    <t>3.764706</t>
+  </si>
+  <si>
+    <t>655.229412</t>
+  </si>
+  <si>
+    <t>167.233280</t>
+  </si>
+  <si>
+    <t>5.248062</t>
+  </si>
+  <si>
+    <t>684.087597</t>
+  </si>
+  <si>
+    <t>157.281093</t>
+  </si>
+  <si>
+    <t>6.065574</t>
+  </si>
+  <si>
+    <t>701.663934</t>
+  </si>
+  <si>
+    <t>161.830106</t>
+  </si>
+  <si>
+    <t>&lt;350</t>
+  </si>
+  <si>
+    <t>1.333333</t>
+  </si>
+  <si>
+    <t>43.666667</t>
+  </si>
+  <si>
+    <t>1.154701</t>
+  </si>
+  <si>
+    <t>350-450</t>
+  </si>
+  <si>
+    <t>0.732558</t>
+  </si>
+  <si>
+    <t>44.755814</t>
+  </si>
+  <si>
+    <t>4.534667</t>
+  </si>
+  <si>
+    <t>352.3</t>
+  </si>
+  <si>
+    <t>449.3</t>
+  </si>
+  <si>
+    <t>450-550</t>
+  </si>
+  <si>
+    <t>0.954545</t>
+  </si>
+  <si>
+    <t>45.065657</t>
+  </si>
+  <si>
+    <t>4.778413</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>650-750</t>
+  </si>
+  <si>
+    <t>4.087379</t>
+  </si>
+  <si>
+    <t>49.941748</t>
+  </si>
+  <si>
+    <t>5.828976</t>
+  </si>
+  <si>
+    <t>748.7</t>
+  </si>
+  <si>
+    <t>750-850</t>
+  </si>
+  <si>
+    <t>5.529412</t>
+  </si>
+  <si>
+    <t>49.867647</t>
+  </si>
+  <si>
+    <t>6.049311</t>
+  </si>
+  <si>
+    <t>751.0</t>
+  </si>
+  <si>
+    <t>1.800000</t>
+  </si>
+  <si>
+    <t>47.971429</t>
+  </si>
+  <si>
+    <t>5.221481</t>
+  </si>
+  <si>
+    <t>2.392405</t>
+  </si>
+  <si>
+    <t>48.189873</t>
+  </si>
+  <si>
+    <t>5.063889</t>
+  </si>
+  <si>
+    <t>452.3</t>
+  </si>
+  <si>
+    <t>4.839080</t>
+  </si>
+  <si>
+    <t>51.229885</t>
+  </si>
+  <si>
+    <t>5.182038</t>
+  </si>
+  <si>
+    <t>6.962963</t>
+  </si>
+  <si>
+    <t>52.055556</t>
+  </si>
+  <si>
+    <t>4.499126</t>
+  </si>
+  <si>
+    <t>752.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final study of the dataset by grouping by CO2 levels | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Including</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows with 0 people</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final study of the dataset by grouping by Sound levels | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Including</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows with 0 people</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final study of the dataset by grouping by CO2 levels | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excluding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows with 0 people</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Final study of the dataset by grouping by Sound levels | Ex</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluding</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rows with 0 people</t>
+    </r>
+  </si>
+  <si>
+    <t>Min Sound Value</t>
+  </si>
+  <si>
+    <t>Max Sound Value</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>Sound Min</t>
+  </si>
+  <si>
+    <t>Sound Max</t>
+  </si>
+  <si>
+    <t>42.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +789,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,25 +835,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6F9A7-ED2E-4555-864C-DF0F6DE1B947}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:AV90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="71" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,847 +1221,2800 @@
     <col min="20" max="20" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="36" max="36" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.6640625" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="S1" s="2"/>
       <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="M2" s="2"/>
+      <c r="Z1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+    </row>
+    <row r="2" spans="1:48" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="S2" s="2"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+    </row>
+    <row r="3" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="Z3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>0.87</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
         <v>0.59</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>0.68</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="1">
         <v>0.91</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="1">
         <v>0.66</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="1">
         <v>0.87</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="1">
         <v>0.59</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="1">
         <v>0.69</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="1">
         <v>0.9</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="1">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="Z4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>271</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+    </row>
+    <row r="5" spans="1:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
         <v>0.84</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="1">
         <v>0.59</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="1">
         <v>0.7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>0.87</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="1">
         <v>0.69</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="1">
         <v>0.83</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="1">
         <v>0.59</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="1">
         <v>0.71</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="1">
         <v>0.86</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="1">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>86</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>168</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+    </row>
+    <row r="6" spans="1:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>0.78</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>0.59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>0.71</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>0.8</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <v>0.7</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="1">
         <v>0.77</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="1">
         <v>0.59</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="1">
         <v>0.73</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="1">
         <v>0.79</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>198</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>132</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+    </row>
+    <row r="7" spans="1:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>0.69</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>0.59</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="1">
         <v>0.72</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>0.7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="1">
         <v>0.72</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="1">
         <v>0.67</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="1">
         <v>0.59</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="1">
         <v>0.72</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="1">
         <v>0.67</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="Z7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>132</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+    </row>
+    <row r="8" spans="1:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>103</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="M10" s="2"/>
       <c r="N10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="S10" s="2"/>
       <c r="T10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="Z10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="F11" s="2"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="M11" s="2"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="S11" s="2"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="Z11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>21</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+    </row>
+    <row r="12" spans="1:48" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="Z12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+    </row>
+    <row r="13" spans="1:48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>0.79</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <v>0.68</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="1">
         <v>0.84</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="1">
         <v>0.53</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="1">
         <v>0.66</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="1">
         <v>0.79</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="1">
         <v>0.69</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="1">
         <v>0.83</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="1">
         <v>0.53</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="1">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="Z13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB13" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="7">
+      <c r="AC13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.76</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>0.7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="1">
         <v>0.81</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="1">
         <v>0.53</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="1">
         <v>0.69</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="1">
         <v>0.75</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="1">
         <v>0.71</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="1">
         <v>0.8</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="1">
         <v>0.53</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="1">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+    </row>
+    <row r="15" spans="1:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>0.71</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="1">
         <v>0.71</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="1">
         <v>0.74</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="1">
         <v>0.53</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="1">
         <v>0.7</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="1">
         <v>0.7</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="1">
         <v>0.73</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="1">
         <v>0.73</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="1">
         <v>0.53</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+    </row>
+    <row r="16" spans="1:48" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>0.65</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>0.72</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="1">
         <v>0.64</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="1">
         <v>0.53</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="1">
         <v>0.72</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="1">
         <v>0.63</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="1">
         <v>0.72</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="1">
         <v>0.62</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="1">
         <v>0.53</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="Z16" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+    </row>
+    <row r="17" spans="1:48" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+    </row>
+    <row r="18" spans="1:48" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+    </row>
+    <row r="20" spans="1:48" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>35</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>119</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>79</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>129</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>61</v>
+      </c>
+      <c r="AM22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>87</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>54</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="Z28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="F31" s="2"/>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+    </row>
+    <row r="32" spans="1:48" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="F32" s="2"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="1">
         <v>0.37</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="1">
         <v>0.23</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="1">
         <v>0.61</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="1">
         <v>0.43</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="1">
         <v>0.37</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="1">
         <v>0.24</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="1">
         <v>0.62</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="1">
         <v>0.43</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="1">
         <v>0.37</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="1">
         <v>0.26</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="1">
         <v>0.62</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="1">
         <v>0.43</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="1">
         <v>0.23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="1">
         <v>0.37</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="1">
         <v>0.62</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="1">
         <v>0.43</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="1">
         <v>0.26</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="1">
         <v>0.37</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="1">
         <v>0.61</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="1">
         <v>0.43</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="1">
         <v>0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="1">
         <v>0.37</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="1">
         <v>0.61</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="1">
         <v>0.43</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="1">
         <v>0.26</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="1">
         <v>0.54</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="1">
         <v>0.37</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="1">
         <v>0.6</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="1">
         <v>0.43</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:48" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="27">
+    <mergeCell ref="Z16:AH17"/>
+    <mergeCell ref="Z1:AH2"/>
+    <mergeCell ref="AJ1:AR2"/>
+    <mergeCell ref="AJ16:AR17"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="A47:I48"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="T1:V2"/>
+    <mergeCell ref="T10:V11"/>
+    <mergeCell ref="A28:I29"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B10:D11"/>
     <mergeCell ref="G31:I32"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="N1:P2"/>
     <mergeCell ref="N10:P11"/>
     <mergeCell ref="G10:I11"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="T10:V11"/>
-    <mergeCell ref="A28:I29"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="A83:I84"/>
+    <mergeCell ref="B86:D87"/>
+    <mergeCell ref="G86:I87"/>
+    <mergeCell ref="A59:I60"/>
+    <mergeCell ref="B62:D63"/>
+    <mergeCell ref="G62:I63"/>
+    <mergeCell ref="A71:I72"/>
+    <mergeCell ref="B74:D75"/>
+    <mergeCell ref="G74:I75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
